--- a/Kode/Server2/Logs/LTE-node1/2020-05-16.xlsx
+++ b/Kode/Server2/Logs/LTE-node1/2020-05-16.xlsx
@@ -403,7 +403,7 @@
         <v>262.395</v>
       </c>
       <c r="F2" t="n">
-        <v>4621.300740000001</v>
+        <v>4621300.74</v>
       </c>
     </row>
     <row r="3">
